--- a/scripts/happy.xlsx
+++ b/scripts/happy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="mySheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="189">
   <si>
     <t xml:space="preserve">十佳歌手初赛报名表</t>
   </si>
@@ -41,6 +41,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">微信</t>
     </r>
@@ -76,6 +77,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -119,6 +121,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">秦子堃</t>
     </r>
@@ -149,6 +152,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">范兮然</t>
     </r>
@@ -179,6 +183,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -246,6 +251,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -297,6 +303,18 @@
     <t xml:space="preserve">2018-11-2 06:11:11</t>
   </si>
   <si>
+    <t xml:space="preserve">peimanli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lipeiman@ufl.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3523287607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-2 05:34:23</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -313,6 +331,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -328,18 +347,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">peimanli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lipeiman@ufl.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3523287607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-11-2 05:34:23</t>
-  </si>
-  <si>
     <t xml:space="preserve">何东恩</t>
   </si>
   <si>
@@ -380,6 +387,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -431,6 +439,18 @@
     <t xml:space="preserve">2018-11-1 12:03:50</t>
   </si>
   <si>
+    <t xml:space="preserve">李鸣妹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mingmei.li@ufl.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmm1205592127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-31 11:22:21</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -447,6 +467,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -462,18 +483,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">李鸣妹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mingmei.li@ufl.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lmm1205592127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-31 11:22:21</t>
-  </si>
-  <si>
     <t xml:space="preserve">张洹彬</t>
   </si>
   <si>
@@ -498,6 +507,30 @@
     <t xml:space="preserve">2018-10-31 03:15:28</t>
   </si>
   <si>
+    <t xml:space="preserve">Ziwei Wei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ziwei.wei@ufl.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JACAziWei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-30 08:08:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈涵之</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hchen1@ufl.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1043382978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-30 00:04:20</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -514,6 +547,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -529,30 +563,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ziwei Wei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ziwei.wei@ufl.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JACAziWei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-30 08:08:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">陈涵之</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hchen1@ufl.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1043382978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-30 00:04:20</t>
-  </si>
-  <si>
     <t xml:space="preserve">沈泽楷</t>
   </si>
   <si>
@@ -581,6 +591,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -602,6 +613,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">闫海 </t>
     </r>
@@ -621,6 +633,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">莫博翰</t>
     </r>
@@ -675,6 +688,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -742,6 +756,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -793,6 +808,42 @@
     <t xml:space="preserve">2018-10-26 09:54:17</t>
   </si>
   <si>
+    <t xml:space="preserve">Xinhong Liu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lxhowl@ufl.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OwlLumos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-26 09:51:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shang.shi@ufl.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shishangsb66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-26 09:29:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tingting Zhao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tingting.zhao@ufl.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ztt375360507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-26 09:26:07</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -809,6 +860,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -820,44 +872,63 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">00</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Xinhong Liu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lxhowl@ufl.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OwlLumos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-26 09:51:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石上</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shang.shi@ufl.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shishangsb66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-26 09:29:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tingting Zhao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tingting.zhao@ufl.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ztt375360507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-26 09:26:07</t>
+      <t xml:space="preserve">15</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chenyue Zhao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zhao.chenyue@ufl.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2065199413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-26 09:21:40</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Yanxi Liu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">刘彦希</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">liuyanxi@ufl.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lyx97109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-26 09:13:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuan Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuanli1@ufl.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emily--pisces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-26 09:08:43</t>
   </si>
   <si>
     <r>
@@ -876,6 +947,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：</t>
     </r>
@@ -887,91 +959,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">15</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Chenyue Zhao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhao.chenyue@ufl.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2065199413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-26 09:21:40</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Yanxi Liu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">刘彦希</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">liuyanxi@ufl.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lyx97109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-26 09:13:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yuan Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yuanli1@ufl.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emily--pisces </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-26 09:08:43</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">30</t>
     </r>
   </si>
@@ -1006,37 +993,6 @@
     <t xml:space="preserve">2018-10-26 09:03:59</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">45</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Changjiang Yang</t>
   </si>
   <si>
@@ -1061,19 +1017,19 @@
     <t xml:space="preserve">2018-10-26 08:49:49</t>
   </si>
   <si>
+    <t xml:space="preserve">官能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zzhao.che@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josiah_zzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-26 08:40:47</t>
+  </si>
+  <si>
     <t xml:space="preserve">13: 45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">官能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zzhao.che@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josiah_zzy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-26 08:40:47</t>
   </si>
   <si>
     <t xml:space="preserve">郭静晓</t>
@@ -1124,6 +1080,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1138,6 +1095,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1152,6 +1110,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1196,7 +1155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1225,10 +1184,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1248,19 +1203,19 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6185185185185"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9444444444444"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.6777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2259259259259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.6333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1418,9 +1373,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>32</v>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>37</v>
@@ -1452,26 +1407,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>50</v>
@@ -1488,7 +1443,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>54</v>
@@ -1554,26 +1509,26 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>76</v>
@@ -1588,9 +1543,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>71</v>
+    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>80</v>
@@ -1605,43 +1560,43 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>93</v>
@@ -1809,225 +1764,225 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="E34" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="0" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="E35" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="E36" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="E37" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="E38" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="E39" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="E40" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="D42" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="E42" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="E42" s="0" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="C43" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="D43" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="E43" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="D43" s="0" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="C44" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="D44" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="E44" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="0" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="C45" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="E45" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="E46" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
